--- a/VocabolariControllati/classifications-for-organizations/S13/S13.xlsx
+++ b/VocabolariControllati/classifications-for-organizations/S13/S13.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgialodi/Desktop/AGID/NuovoDATIGOV/DAF/Git/OntologieVocabolariControllati/VocabolariControllati/classifications-for-organizations/S13/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449700DB-1A01-B249-A684-4227CD9E7E0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="0" windowWidth="23680" windowHeight="13560" tabRatio="500"/>
+    <workbookView xWindow="1480" yWindow="460" windowWidth="23680" windowHeight="13560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
   <si>
     <t>codice_1_livello</t>
   </si>
@@ -69,9 +75,6 @@
     <t>Enti produttori di servizi assistenziali, ricreativi e culturali</t>
   </si>
   <si>
-    <t>Enti Pubblici Produttori di Servizi Assistenziali, Ricreativi e Culturali; Federazioni Nazionali, Ordini, Collegi e Consigli Professionali</t>
-  </si>
-  <si>
     <t>Enti e Istituzioni di ricerca</t>
   </si>
   <si>
@@ -135,15 +138,9 @@
     <t>Agenzie ed enti per il turismo</t>
   </si>
   <si>
-    <t>ENTI ED AGENZIE PER IL TURISMO; Agenzie ed Enti per il Turismo</t>
-  </si>
-  <si>
     <t>Agenzie ed enti regionali del lavoro</t>
   </si>
   <si>
-    <t>AGENZIE REGIONALI DEL LAVORO; Agenzie ed Enti Regionali del Lavoro</t>
-  </si>
-  <si>
     <t>Agenzie ed enti regionali e provinciali per la formazione, la ricerca e l'ambiente</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>Agenzie regionali per la rappresentanza negoziale</t>
   </si>
   <si>
-    <t>AGENZIE REGIONALI PER LE RELAZIONI SINDACALI; Agenzie regionali per la rappresentanza negoziale</t>
-  </si>
-  <si>
     <t>Agenzie regionali per le erogazioni in agricoltura</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>Aziende ospedaliere, aziende ospedaliero-universitarie, policlinici e istituti di ricovero e cura a carattere scientifico pubblici</t>
   </si>
   <si>
-    <t>AZIENDE OSPEDALIERE PUBBLICHE; Aziende Ospedaliere, Aziende Ospedaliere Universitarie, Policlinici e Istituti di Ricovero e Cura a Carattere Scientifico Pubblici</t>
-  </si>
-  <si>
     <t>Aziende sanitarie locali</t>
   </si>
   <si>
@@ -210,9 +201,6 @@
     <t>Parchi nazionali, consorzi ed enti gestori di parchi e aree naturali protette</t>
   </si>
   <si>
-    <t>CONSORZI E ENTI GESTORI DI PARCHI E AREE NATURALI PROTETTE; Parchi Nazionali, Consorzi e Enti Gestori di Parchi e Aree Naturali Protette</t>
-  </si>
-  <si>
     <t>Consorzi interuniversitari di ricerca</t>
   </si>
   <si>
@@ -222,9 +210,6 @@
     <t>Agenzie ed enti regionali di sviluppo agricolo</t>
   </si>
   <si>
-    <t>Agenzie ed Enti Regionali di Sviluppo Agricolo; ENTI REGIONALI DI SVILUPPO AGRICOLO</t>
-  </si>
-  <si>
     <t>Fondazioni lirico-sinfoniche</t>
   </si>
   <si>
@@ -240,34 +225,85 @@
     <t>Università e istituti di istruzione universitaria pubblici</t>
   </si>
   <si>
-    <t>UNIVERSITA' PUBBLICHE; Universita' e Istituti di Istruzione Universitaria Pubblici</t>
-  </si>
-  <si>
     <t>Altre amministrazioni locali</t>
   </si>
   <si>
-    <t>Altri Enti Locali; ALTRI ENTI E ISTITUZIONI PUBBLICHE LOCALI</t>
-  </si>
-  <si>
     <t>Enti nazionali di previdenza e assistenza</t>
   </si>
   <si>
     <t>Enti nazionali di previdenza e assistenza sociale</t>
   </si>
   <si>
-    <t>Enti Nazionali di Previdenza ed Assistenza Sociale in Conto Economico Consolidato; ENTI NAZIONALI DI PREVIDENZA E ASSISTENZA</t>
-  </si>
-  <si>
-    <t>labelalt_ita_2_livello</t>
-  </si>
-  <si>
     <t>Camere di commercio, industria, artigianato e agricoltura e unioni regionali</t>
+  </si>
+  <si>
+    <t>labelalt_ipa_ita_2_livello</t>
+  </si>
+  <si>
+    <t>labelalt_bdap_ita_2_livello</t>
+  </si>
+  <si>
+    <t>ENTI ED AGENZIE PER IL TURISMO</t>
+  </si>
+  <si>
+    <t>Agenzie ed Enti per il Turismo</t>
+  </si>
+  <si>
+    <t>AGENZIE REGIONALI DEL LAVORO</t>
+  </si>
+  <si>
+    <t>Agenzie ed Enti Regionali del Lavoro</t>
+  </si>
+  <si>
+    <t>AGENZIE REGIONALI PER LE RELAZIONI SINDACALI</t>
+  </si>
+  <si>
+    <t>Aziende Ospedaliere, Aziende Ospedaliere Universitarie, Policlinici e Istituti di Ricovero e Cura a Carattere Scientifico Pubblici</t>
+  </si>
+  <si>
+    <t>AZIENDE OSPEDALIERE PUBBLICHE</t>
+  </si>
+  <si>
+    <t>CONSORZI E ENTI GESTORI DI PARCHI E AREE NATURALI PROTETTE</t>
+  </si>
+  <si>
+    <t>Parchi Nazionali, Consorzi e Enti Gestori di Parchi e Aree Naturali Protette</t>
+  </si>
+  <si>
+    <t>ENTI REGIONALI DI SVILUPPO AGRICOLO</t>
+  </si>
+  <si>
+    <t>Agenzie ed Enti Regionali di Sviluppo Agricolo</t>
+  </si>
+  <si>
+    <t>UNIVERSITA' PUBBLICHE</t>
+  </si>
+  <si>
+    <t>Universita' e Istituti di Istruzione Universitaria Pubblici</t>
+  </si>
+  <si>
+    <t>ALTRI ENTI E ISTITUZIONI PUBBLICHE LOCALI</t>
+  </si>
+  <si>
+    <t>Altri Enti Locali</t>
+  </si>
+  <si>
+    <t>ENTI NAZIONALI DI PREVIDENZA E ASSISTENZA</t>
+  </si>
+  <si>
+    <t>Enti Nazionali di Previdenza ed Assistenza Sociale in Conto Economico Consolidato</t>
+  </si>
+  <si>
+    <t>Enti Pubblici Produttori di Servizi Assistenziali, Ricreativi e Cultural</t>
+  </si>
+  <si>
+    <t>Federazioni Nazionali, Ordini, Collegi e Consigli Professionali</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -305,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,14 +354,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -333,21 +363,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="357">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -708,384 +723,383 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="357">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="283" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="285" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="287" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="289" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="291" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="293" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="295" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="297" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="327" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="329" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="331" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="333" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="335" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="337" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="339" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="341" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="343" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="345" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="347" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="349" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="351" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="353" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="355" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1410,711 +1424,765 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="169" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="56.33203125" customWidth="1"/>
-    <col min="5" max="5" width="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="104.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>102</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>101</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="6">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3">
         <v>108</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>103</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>104</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>105</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>106</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="30">
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>107</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>110</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11">
+        <v>110</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
         <v>112</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>201</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>203</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>202</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>204</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>205</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>206</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
         <v>33</v>
       </c>
-      <c r="C12">
-        <v>201</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13">
-        <v>203</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <v>202</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15">
-        <v>204</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16">
-        <v>205</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17">
-        <v>206</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>216</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18">
-        <v>216</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="1" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>212</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19">
-        <v>212</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>222</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>220</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20">
-        <v>222</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="E22" t="s">
         <v>39</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>233</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="30">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21">
-        <v>220</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>232</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22">
-        <v>233</v>
-      </c>
-      <c r="D22" s="2" t="s">
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>221</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23">
-        <v>232</v>
-      </c>
-      <c r="D23" s="2" t="s">
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>225</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24">
-        <v>221</v>
-      </c>
-      <c r="D24" s="2" t="s">
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>218</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25">
-        <v>225</v>
-      </c>
-      <c r="D25" s="2" t="s">
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>208</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>207</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26">
-        <v>218</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="E29" t="s">
         <v>51</v>
       </c>
-      <c r="E26" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>211</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <v>208</v>
-      </c>
-      <c r="D27" s="2" t="s">
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>224</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28">
-        <v>207</v>
-      </c>
-      <c r="D28" s="2" t="s">
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>237</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29">
-        <v>211</v>
-      </c>
-      <c r="D29" s="2" t="s">
+    <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>219</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30">
-        <v>224</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>230</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31">
-        <v>237</v>
-      </c>
-      <c r="D31" s="2" t="s">
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>217</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>239</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="45">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32">
-        <v>219</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="E36" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="2" t="s">
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37">
+        <v>234</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33">
-        <v>230</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="E37" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="1" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>213</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="30">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34">
-        <v>217</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39">
+        <v>223</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35">
-        <v>239</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C40">
+        <v>300</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36">
-        <v>234</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37">
-        <v>213</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38">
-        <v>223</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30">
-      <c r="A39">
-        <v>3</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39">
-        <v>300</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="2"/>
+      <c r="E40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/VocabolariControllati/classifications-for-organizations/S13/S13.xlsx
+++ b/VocabolariControllati/classifications-for-organizations/S13/S13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgialodi/Desktop/AGID/NuovoDATIGOV/DAF/Git/OntologieVocabolariControllati/VocabolariControllati/classifications-for-organizations/S13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449700DB-1A01-B249-A684-4227CD9E7E0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B217D0E2-2A45-C047-8BC4-A00C0DBEA563}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="460" windowWidth="23680" windowHeight="13560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,13 +723,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="357">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1427,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="169" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1462,13 +1463,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1479,13 +1480,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1496,13 +1497,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1513,13 +1514,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1530,13 +1531,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1547,13 +1548,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1564,13 +1565,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>106</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1581,13 +1582,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>107</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1598,13 +1599,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1615,13 +1616,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>110</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1632,13 +1633,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>112</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1649,13 +1650,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>201</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1666,13 +1667,13 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>203</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1683,13 +1684,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>202</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1700,13 +1701,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>204</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1717,13 +1718,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>205</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1734,13 +1735,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>206</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1751,13 +1752,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>216</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1768,13 +1769,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>212</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1788,13 +1789,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>222</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1808,13 +1809,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>220</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1825,13 +1826,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="3">
         <v>2</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>233</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1845,13 +1846,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>232</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1862,13 +1863,13 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="3">
         <v>2</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>221</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1879,13 +1880,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="3">
         <v>2</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>225</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1896,13 +1897,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="3">
         <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>218</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1913,13 +1914,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="3">
         <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>208</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1933,13 +1934,13 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="3">
         <v>2</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>207</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1950,13 +1951,13 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="3">
         <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>211</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1967,13 +1968,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="3">
         <v>2</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>224</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1984,13 +1985,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="3">
         <v>2</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>237</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2001,13 +2002,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="3">
         <v>2</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>219</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2021,13 +2022,13 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="3">
         <v>2</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>230</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2038,13 +2039,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="3">
         <v>2</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>217</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -2058,13 +2059,13 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="3">
         <v>2</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>239</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -2075,13 +2076,13 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="3">
         <v>2</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>234</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2092,13 +2093,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="3">
         <v>2</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>213</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2112,13 +2113,13 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="3">
         <v>2</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>223</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2132,13 +2133,13 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="3">
         <v>3</v>
       </c>
       <c r="B40" t="s">
         <v>67</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>300</v>
       </c>
       <c r="D40" s="1" t="s">
